--- a/medicine/Pharmacie/Vernakalant/Vernakalant.xlsx
+++ b/medicine/Pharmacie/Vernakalant/Vernakalant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le vernakalant est une molécule, testé en tant que médicament antiarythmique dans la régularisation de la fibrillation auriculaire. La revue médicale indépendante Prescrire déconseille son utilisation[2].
+Le vernakalant est une molécule, testé en tant que médicament antiarythmique dans la régularisation de la fibrillation auriculaire. La revue médicale indépendante Prescrire déconseille son utilisation.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette molécule bloque les canaux ioniques potassiques[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette molécule bloque les canaux ioniques potassiques.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il permet, en injection, de régulariser le rythme cardiaque des patients ayant passé récemment en fibrillation auriculaire dans environ la moitié des cas[4]. Il s'avère être d'une efficacité supérieure à celle de l'amiodarone chez ce type de patient[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il permet, en injection, de régulariser le rythme cardiaque des patients ayant passé récemment en fibrillation auriculaire dans environ la moitié des cas. Il s'avère être d'une efficacité supérieure à celle de l'amiodarone chez ce type de patient.
 </t>
         </is>
       </c>
